--- a/public/downloads/Template FIles/Profit And Loss Report Result.xlsx
+++ b/public/downloads/Template FIles/Profit And Loss Report Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\vs1_cloud_project\public\downloads\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497C2B6-A2AE-4D09-947A-6F40AA511E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABE021-35D8-48AD-8196-C7B68E1479B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>INC</t>
   </si>
@@ -169,30 +169,9 @@
     <t>HideTotal</t>
   </si>
   <si>
-    <t>179 -Acc Income</t>
-  </si>
-  <si>
-    <t>230 -Acc Income test</t>
-  </si>
-  <si>
-    <t>7 -Sales</t>
-  </si>
-  <si>
-    <t>33 -UnInvoiced SO</t>
-  </si>
-  <si>
-    <t>4 -Cost of Goods Sold</t>
-  </si>
-  <si>
-    <t>48 -Admin Fee (Credit Card)</t>
-  </si>
-  <si>
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>Oct 2022 Percentage</t>
-  </si>
-  <si>
     <t>Nov 2022 Percentage</t>
   </si>
   <si>
@@ -203,12 +182,33 @@
   </si>
   <si>
     <t>Running Total</t>
+  </si>
+  <si>
+    <t>Feb 2023 Percentage</t>
+  </si>
+  <si>
+    <t>Acc Income</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>UnInvoiced SO</t>
+  </si>
+  <si>
+    <t>Admin Fee (Credit Card)</t>
+  </si>
+  <si>
+    <t>Stock Adjustment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,10 +246,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,54 +1091,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1">
-        <v>44835</v>
+      <c r="B1" s="2">
+        <v>44866</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44866</v>
+        <v>43</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44896</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1">
-        <v>44896</v>
+        <v>44</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44927</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="4">
-        <v>44927</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="2">
+        <v>44958</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,291 +1147,519 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>-50</v>
       </c>
-      <c r="E3">
-        <v>-0.123</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>-23.2</v>
-      </c>
-      <c r="I3">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="J3">
-        <v>-73.2</v>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-32.29</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-10.14</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-92.43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-77.62</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>17340</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>17237.38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>4375.1400000000003</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>455.22</v>
-      </c>
-      <c r="E5">
-        <v>1.123</v>
-      </c>
-      <c r="F5">
-        <v>373</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1652.78</v>
-      </c>
-      <c r="I5">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="J5">
-        <v>6856.14</v>
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>980.89</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>980.89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>980.89</v>
-      </c>
-      <c r="I6">
-        <v>0.376</v>
-      </c>
-      <c r="J6">
-        <v>980.89</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM(B3:B5)</f>
+        <v>-50</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C3:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(D3:D5)</f>
+        <v>-25</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E3:E5)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SUM(F3:F5)</f>
+        <v>870.98</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM(G3:G5)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H6" s="3">
+        <f>SUM(H3:H5)</f>
+        <v>17329.86</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM(I3:I5)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J6" s="3">
+        <f>SUM(J3:J5)</f>
+        <v>18125.84</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <f>SUM(B3:B6)</f>
-        <v>4375.6400000000003</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D3:D6)</f>
-        <v>405.22</v>
-      </c>
-      <c r="F7">
-        <v>373</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="C7:J7" si="0">SUM(H3:H6)</f>
-        <v>2610.4699999999998</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>7764.3300000000008</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="3">
+        <v>-90.91</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-14.21</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-8105.12</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-710.14</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-714.21</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>-1424.35</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B8</f>
+        <v>-90.91</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="C9:J9" si="0">D8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>-14.21</v>
+      </c>
+      <c r="G9" s="4">
+        <f>G8</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="I9" s="4">
+        <f>I8</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>-8105.12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="C10:J10" si="1">D9</f>
-        <v>-710.14</v>
-      </c>
-      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B9+B6</f>
+        <v>-140.91</v>
+      </c>
+      <c r="C10" s="4">
+        <f>AVERAGE(C9,C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="C10:J10" si="1">D9+D6</f>
+        <v>-25</v>
+      </c>
+      <c r="E10" s="4">
+        <f>AVERAGE(E9,E6)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
+        <v>856.77</v>
+      </c>
+      <c r="G10" s="4">
+        <f>AVERAGE(G9,G6)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>-714.21</v>
-      </c>
-      <c r="J10">
+        <v>9329.86</v>
+      </c>
+      <c r="I10" s="4">
+        <f>AVERAGE(I9,I6)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>-1424.35</v>
+        <v>10020.720000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B7,B10)</f>
-        <v>4375.6400000000003</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="C11:J11" si="2">SUM(D7,D10)</f>
-        <v>-304.91999999999996</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>373</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1896.2599999999998</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>6339.9800000000014</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>-10</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>-10</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-300</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="C14:J14" si="3">D13</f>
+        <v>42</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(B12:B13)</f>
         <v>-10</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="C14:J14" si="2">SUM(D12:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>-300</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>-310</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <f>B11-B14</f>
-        <v>4375.6400000000003</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="C15:J15" si="4">D11-D14</f>
-        <v>-294.91999999999996</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>373</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>1896.2599999999998</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>6349.9800000000014</v>
-      </c>
+      <c r="B15" s="3">
+        <f>B14+B10</f>
+        <v>-150.91</v>
+      </c>
+      <c r="C15" s="4">
+        <f>AVERAGE(C14,C10)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="C15:J15" si="3">D14+D10</f>
+        <v>-25</v>
+      </c>
+      <c r="E15" s="4">
+        <f>AVERAGE(E14,E10)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>856.77</v>
+      </c>
+      <c r="G15" s="4">
+        <f>AVERAGE(G14,G10)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>9029.86</v>
+      </c>
+      <c r="I15" s="4">
+        <f>AVERAGE(I14,I10)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>9710.7200000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1455,7 +1682,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,1199 +1745,1199 @@
     <col min="60" max="60" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="b">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>1083349.5399799999</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>200</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
         <v>50</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>972795.38541999995</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
         <v>200</v>
       </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
         <v>50</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>1083599.5399799999</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>973045.38541999995</v>
       </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="b">
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="b">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="b">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>-654484.99187078106</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>-654260.57187078102</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>-654484.99187078106</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>-654260.57187078102</v>
       </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="b">
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2" t="b">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="b">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>20945.561849999998</v>
       </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>26640.2644</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <v>20945.561849999998</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="1">
         <v>26640.2644</v>
       </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2" t="b">
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2" t="b">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>428864.54810921999</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>200</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
         <v>50</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>318534.81354921899</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
         <v>200</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
         <v>50</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="1">
         <v>429114.54810921999</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="1">
         <v>318784.81354921899</v>
       </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2" t="b">
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2" t="b">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>449810.10995921999</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
         <v>200</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <v>50</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>345175.07794921898</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
         <v>200</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
         <v>50</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="1">
         <v>450060.10995921999</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="1">
         <v>345425.07794921898</v>
       </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2" t="b">
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
